--- a/markdown/data/DataDictionary_FINAL.xlsx
+++ b/markdown/data/DataDictionary_FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataschastoffel/Documents/GitHub/RRST_FND/markdown/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D12CA-C91A-3544-A582-EE3221FB4915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35329310-D925-8A41-951B-00F1AA1CBB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="207">
   <si>
     <t>Variable / Field Name</t>
   </si>
@@ -385,9 +385,6 @@
     <t>rrst_sensitivity</t>
   </si>
   <si>
-    <t>Sensitivity of RRST (where did it converge; slope number alpha after finishing hte task) and substract this value by 17 so that the higher the value the more sensitivity (the better their interoception)</t>
-  </si>
-  <si>
     <t>ctq_emoab</t>
   </si>
   <si>
@@ -458,27 +455,9 @@
     <t>[crf_arm_1][ctq_emoab] + [crf_arm_1][ctq_physab] + [crf_arm_1][ctq_sexab] + [crf_arm_1][ctq_emoneg] + [crf_arm_1][ctq_physneg]</t>
   </si>
   <si>
-    <t>traitPE_maiaRRST</t>
-  </si>
-  <si>
     <t>00_preparation.R</t>
   </si>
   <si>
-    <t xml:space="preserve">trait prediction error using  MAIA questionnaire (the higher the value the more self.reported interoceptive accuracy) - RRST sensitivity (the higher the value, the more sensitive) after  z-transforming both values, and look at the difference between both values </t>
-  </si>
-  <si>
-    <t>the more POSITIVE the value, the higher the Trait(questionnaire)Prediction(sensitivity)-Error in the sense of OVERRATING (self reported MORE interoceptive awareness than the task would show), 0 = perfect match form report to task, the more NEGATIVE the value, the higher the Trait(questionnaire)Prediction(sensitivity)-Error in the sense of UNDERRATING (self reported LESS interoceptive awareness than the task would show)</t>
-  </si>
-  <si>
-    <t>see R script</t>
-  </si>
-  <si>
-    <t>traitPE_iasRRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trait prediction error using  IAS questionnaire (the higher the value the more self.reported interoceptive accuracy) - RRST sensitivity (the higher the value, the more sensitive) after  z-transforming both values, and look at the difference between both values </t>
-  </si>
-  <si>
     <t>diagnosis</t>
   </si>
   <si>
@@ -714,6 +693,15 @@
   </si>
   <si>
     <t>sum score of severity rating (motor_strength + seizures_number)</t>
+  </si>
+  <si>
+    <t>rrst_slope</t>
+  </si>
+  <si>
+    <t>Slope of RRST (how did the psychometirc function fit; slope estimate beta after finishing the task)</t>
+  </si>
+  <si>
+    <t>Sensitivity of RRST (where did it converge;  estimate alpha after finishing the task) and substract this value by 17 so that the higher the value the more sensitivity (the better their interoception)</t>
   </si>
 </sst>
 </file>
@@ -874,9 +862,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -915,6 +900,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,10 +2064,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="107" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2095,27 +2083,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2133,7 +2121,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2149,7 +2137,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2169,7 +2157,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2187,7 +2175,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2205,7 +2193,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2223,79 +2211,79 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="E9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2315,7 +2303,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2335,7 +2323,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2353,7 +2341,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2368,12 +2356,12 @@
       <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2393,7 +2381,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2411,7 +2399,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2429,7 +2417,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2447,7 +2435,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2465,7 +2453,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2483,7 +2471,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2501,7 +2489,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2519,7 +2507,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2537,7 +2525,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2557,7 +2545,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2577,7 +2565,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2595,7 +2583,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2610,12 +2598,12 @@
       <c r="E28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2635,7 +2623,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2653,7 +2641,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2673,28 +2661,28 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -2704,15 +2692,15 @@
         <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -2722,15 +2710,15 @@
         <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -2740,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -2758,15 +2746,15 @@
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -2776,15 +2764,15 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -2794,14 +2782,14 @@
         <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2812,567 +2800,545 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12" t="s">
+    </row>
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="C60:C65"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
